--- a/20_営業/07_会計/TE030/T_TE030_CFO_001_A10_02_経費精算データのシステム承認_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_001_A10_02_経費精算データのシステム承認_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\30_テストフェーズ\20_パフォーマンステスト\30_不具合フォルダ\PT0003_CFO_040\20_恒久対応\20_対応中\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" tabRatio="866"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="8940" tabRatio="866"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="18" r:id="rId13"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="17" r:id="rId14"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)_Issue1.1" sheetId="20" r:id="rId15"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId16"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId17"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ9)" sheetId="21" r:id="rId16"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId17"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -43,11 +44,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ8)_Issue1.1'!$A$1:$I$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="374">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -2504,29 +2506,6 @@
   </si>
   <si>
     <r>
-      <t>REST APIが実行できない場合　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>Issue1.1再テスト</t>
-    </r>
-    <rPh sb="9" eb="11">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">正常終了する。
 </t>
     </r>
@@ -2823,21 +2802,228 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Issue1.1</t>
+    <t>Issue1.2</t>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ9</t>
+  </si>
+  <si>
+    <t>REST APIが実行できない場合　Issue1.1再テスト</t>
+    <rPh sb="9" eb="11">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>各テスト・シナリオは、以下のテスト・ステップで構成されます。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>各テスト・ステップに沿って単体テストを実施した結果を以下に記載します。</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>予想結果</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <rPh sb="0" eb="4">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD033(非同期処理登録)</t>
+    <rPh sb="9" eb="14">
+      <t>ヒドウキショリ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD034(非同期処理更新)</t>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エラーが発生し、エラーハンドリングによる例外終了となる。(正常終了)</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>レイガイシュウリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="33">
+      <t>セイジョウシュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>エビデンス</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ9</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>9-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>XXCFO001A10_02(経費精算データのシステム承認)</t>
+  </si>
+  <si>
+    <t>XXCFO001A10_02(経費精算データのシステム承認)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO001A10_02からXXCCD0033が実行され、正常終了する。
+※続けてXXCCD034が実行されるため、非同期処理ステータステーブルへの登録は確認しない。</t>
+    <rPh sb="40" eb="41">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①XXCFO001A10_02からXXCCD0034が実行され、正常終了する。
+②非同期処理ステータステーブルにジョブ結果が更新される。</t>
+    <rPh sb="41" eb="46">
+      <t>ヒドウキショリ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO001A10_02からXXCCD0033が実行され、正常終了する。
+※続けてXXCCD034が実行されるため、非同期処理ステータステーブルへの登録は確認しない。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下の入力パラメータでOIC「XXCFO001A10_02(経費精算データのシステム承認)」を起動する。
+{
+  "processId": 2304512
+}</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">以下の入力パラメータでOIC「XXCFO001A10_02(経費精算データのシステム承認)」を起動する。
+{
+  "processId": 1485601
+}
+</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_001_A10_02_経費精算データのシステム承認_OIC統合_エビデンス(シナリオ9).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ジョブステータス登録実行確認(E_本稼働_19992 OICアップグレード対応)</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3065,6 +3251,35 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -3115,7 +3330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -3820,6 +4035,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3833,7 +4076,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4245,22 +4488,56 @@
     <xf numFmtId="179" fontId="7" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4313,6 +4590,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -6050,6 +6329,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>112835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>40445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30356615"/>
+          <a:ext cx="6939915" cy="2609850"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>84260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33057905"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>84260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29537465"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -12192,9 +13196,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -12519,7 +13525,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="12" customHeight="1">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12527,7 +13533,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="6" customHeight="1">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12536,7 +13542,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="21">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -12545,67 +13551,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="155" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
+      <c r="B6" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:8" ht="6" customHeight="1">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="156" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1">
+      <c r="B9" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="156" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1">
+      <c r="B11" s="168" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="156" t="s">
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1">
+      <c r="B13" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:8">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -12613,11 +13619,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="6" customHeight="1">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -12625,23 +13631,23 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="6" customHeight="1">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45042</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45575</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="B22" s="6" t="s">
         <v>69</v>
       </c>
@@ -12649,11 +13655,11 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="6" customHeight="1">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
@@ -12661,13 +13667,13 @@
         <v>343</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="12" customHeight="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -12679,7 +13685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="12" customHeight="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -12717,7 +13723,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13297,7 +14303,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13308,35 +14314,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -13362,7 +14368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="73.5">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>99</v>
@@ -13383,7 +14389,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="64" t="s">
         <v>135</v>
       </c>
@@ -13403,7 +14409,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="B13" s="64" t="s">
         <v>136</v>
       </c>
@@ -13423,7 +14429,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="73.5">
       <c r="B14" s="64" t="s">
         <v>209</v>
       </c>
@@ -13449,7 +14455,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="52.5">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -13469,7 +14475,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="42">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -13489,7 +14495,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="367.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="367.5">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -13509,7 +14515,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="119"/>
       <c r="C18" s="46"/>
       <c r="D18" s="117"/>
@@ -13519,7 +14525,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="38"/>
       <c r="B19" s="119"/>
       <c r="C19" s="46"/>
@@ -13530,7 +14536,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="38"/>
       <c r="B20" s="119"/>
       <c r="C20" s="46"/>
@@ -13541,7 +14547,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="119"/>
       <c r="C21" s="46"/>
       <c r="D21" s="117"/>
@@ -13551,7 +14557,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="38"/>
       <c r="B22" s="119"/>
       <c r="C22" s="46"/>
@@ -13562,7 +14568,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="38"/>
       <c r="B23" s="119"/>
       <c r="C23" s="46"/>
@@ -13573,7 +14579,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="119"/>
       <c r="C24" s="46"/>
       <c r="D24" s="117"/>
@@ -13583,7 +14589,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="119"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -13593,7 +14599,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13603,7 +14609,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13613,7 +14619,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -13623,7 +14629,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="64"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -13633,7 +14639,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="64"/>
       <c r="C30" s="115"/>
       <c r="D30" s="46"/>
@@ -13643,7 +14649,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="64"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -13653,7 +14659,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -13663,7 +14669,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -13673,7 +14679,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="B34" s="68"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46"/>
@@ -13683,7 +14689,7 @@
       <c r="H34" s="46"/>
       <c r="I34" s="76"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="14.25" thickBot="1">
       <c r="B35" s="72"/>
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
@@ -13693,7 +14699,7 @@
       <c r="H35" s="47"/>
       <c r="I35" s="77"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -13703,7 +14709,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -13713,7 +14719,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="6" customHeight="1">
       <c r="A38" s="28"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
@@ -13723,7 +14729,7 @@
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="14.25">
       <c r="A39" s="32" t="s">
         <v>48</v>
       </c>
@@ -13733,7 +14739,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" s="122" t="s">
         <v>236</v>
       </c>
@@ -13745,7 +14751,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -13755,7 +14761,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -13765,7 +14771,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -13775,7 +14781,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -13785,7 +14791,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9">
       <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
@@ -13821,7 +14827,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14401,7 +15407,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14412,35 +15418,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -14466,7 +15472,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>100</v>
@@ -14487,7 +15493,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="64" t="s">
         <v>137</v>
       </c>
@@ -14507,7 +15513,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="B13" s="64" t="s">
         <v>138</v>
       </c>
@@ -14527,7 +15533,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="73.5">
       <c r="B14" s="64" t="s">
         <v>186</v>
       </c>
@@ -14553,7 +15559,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="52.5">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -14573,7 +15579,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="42">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -14593,7 +15599,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="42">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -14613,7 +15619,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="105">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -14634,7 +15640,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="73.5">
       <c r="B19" s="64" t="s">
         <v>210</v>
       </c>
@@ -14660,7 +15666,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="52.5">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -14680,7 +15686,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="42">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -14700,7 +15706,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="231" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="231">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -14720,7 +15726,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -14730,7 +15736,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="68"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -14740,7 +15746,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -14750,7 +15756,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -14760,7 +15766,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="14.25" thickBot="1">
       <c r="B27" s="72"/>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -14770,7 +15776,7 @@
       <c r="H27" s="47"/>
       <c r="I27" s="77"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -14780,7 +15786,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -14790,7 +15796,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="6" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -14800,7 +15806,7 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="14.25">
       <c r="A31" s="32" t="s">
         <v>48</v>
       </c>
@@ -14810,7 +15816,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" s="122" t="s">
         <v>236</v>
       </c>
@@ -14822,7 +15828,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -14832,7 +15838,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -14842,7 +15848,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -14852,7 +15858,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -14862,7 +15868,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -14898,7 +15904,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15478,7 +16484,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15489,35 +16495,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -15543,7 +16549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>102</v>
@@ -15564,7 +16570,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="64" t="s">
         <v>139</v>
       </c>
@@ -15584,7 +16590,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="64" t="s">
         <v>140</v>
       </c>
@@ -15604,7 +16610,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="31.5">
       <c r="B14" s="64" t="s">
         <v>188</v>
       </c>
@@ -15624,7 +16630,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="84">
       <c r="B15" s="64" t="s">
         <v>189</v>
       </c>
@@ -15650,7 +16656,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="52.5">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -15670,7 +16676,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="42">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -15690,7 +16696,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="42">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -15710,7 +16716,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="105">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -15730,7 +16736,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" s="119"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
@@ -15740,7 +16746,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="119"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -15750,7 +16756,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -15760,7 +16766,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -15770,7 +16776,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -15780,7 +16786,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -15790,7 +16796,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9">
       <c r="B26" s="64"/>
       <c r="C26" s="115"/>
       <c r="D26" s="46"/>
@@ -15800,7 +16806,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -15810,7 +16816,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -15820,7 +16826,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -15830,7 +16836,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9">
       <c r="B30" s="68"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -15840,7 +16846,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" ht="14.25" thickBot="1">
       <c r="B31" s="72"/>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -15850,7 +16856,7 @@
       <c r="H31" s="47"/>
       <c r="I31" s="77"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -15860,7 +16866,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -15870,7 +16876,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="6" customHeight="1">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
@@ -15880,7 +16886,7 @@
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="14.25">
       <c r="A35" s="32" t="s">
         <v>48</v>
       </c>
@@ -15890,7 +16896,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" s="122" t="s">
         <v>236</v>
       </c>
@@ -15902,7 +16908,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -15912,7 +16918,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -15922,7 +16928,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -15932,7 +16938,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -15942,7 +16948,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -15978,7 +16984,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16558,7 +17564,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16569,35 +17575,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -16623,7 +17629,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>104</v>
@@ -16644,7 +17650,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="64" t="s">
         <v>141</v>
       </c>
@@ -16664,7 +17670,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="64" t="s">
         <v>142</v>
       </c>
@@ -16684,7 +17690,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="31.5">
       <c r="B14" s="64" t="s">
         <v>190</v>
       </c>
@@ -16704,7 +17710,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="73.5">
       <c r="B15" s="64" t="s">
         <v>191</v>
       </c>
@@ -16730,7 +17736,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="52.5">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -16750,7 +17756,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="42">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -16770,7 +17776,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="42">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -16790,7 +17796,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="105" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="105">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -16810,7 +17816,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" s="119"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -16820,7 +17826,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -16830,7 +17836,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -16840,7 +17846,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -16850,7 +17856,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -16860,7 +17866,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
       <c r="B25" s="64"/>
       <c r="C25" s="115"/>
       <c r="D25" s="46"/>
@@ -16870,7 +17876,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -16880,7 +17886,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -16890,7 +17896,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -16900,7 +17906,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -16910,7 +17916,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" ht="14.25" thickBot="1">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -16920,7 +17926,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -16930,7 +17936,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -16940,7 +17946,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="6" customHeight="1">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -16950,7 +17956,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="14.25">
       <c r="A34" s="32" t="s">
         <v>48</v>
       </c>
@@ -16960,7 +17966,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="B35" s="122" t="s">
         <v>236</v>
       </c>
@@ -16972,7 +17978,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -16982,7 +17988,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -16992,7 +17998,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -17002,7 +18008,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -17012,7 +18018,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -17049,7 +18055,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17629,7 +18635,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17640,35 +18646,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -17694,7 +18700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="B11" s="64" t="s">
         <v>147</v>
       </c>
@@ -17714,7 +18720,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="64" t="s">
         <v>148</v>
       </c>
@@ -17734,7 +18740,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="B13" s="64" t="s">
         <v>149</v>
       </c>
@@ -17754,7 +18760,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="73.5">
       <c r="B14" s="64" t="s">
         <v>194</v>
       </c>
@@ -17780,7 +18786,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="52.5">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -17801,7 +18807,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="42">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -17822,7 +18828,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="42">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -17842,7 +18848,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="105">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -17862,7 +18868,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -17872,7 +18878,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -17882,7 +18888,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -17892,7 +18898,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -17902,7 +18908,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="64"/>
       <c r="C23" s="115"/>
       <c r="D23" s="46"/>
@@ -17912,7 +18918,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -17922,7 +18928,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -17932,7 +18938,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="68"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -17942,7 +18948,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -17952,7 +18958,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="14.25" thickBot="1">
       <c r="B28" s="72"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
@@ -17962,7 +18968,7 @@
       <c r="H28" s="47"/>
       <c r="I28" s="77"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -17972,7 +18978,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -17982,7 +18988,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="6" customHeight="1">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -17992,7 +18998,7 @@
       <c r="G31" s="35"/>
       <c r="H31" s="35"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="32" t="s">
         <v>146</v>
       </c>
@@ -18002,7 +19008,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="122" t="s">
         <v>236</v>
       </c>
@@ -18014,7 +19020,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -18024,7 +19030,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -18034,7 +19040,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -18044,7 +19050,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -18054,7 +19060,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -18081,7 +19087,6 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I33"/>
@@ -18091,7 +19096,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -18671,7 +19676,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -18682,35 +19687,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -18736,181 +19741,181 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="73.5">
       <c r="B11" s="64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F11" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="H11" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I11" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="52.5">
       <c r="A12" s="38"/>
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="57" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F12" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I12" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="42">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
       <c r="E13" s="57" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F13" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="H13" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I13" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="21">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="154" t="s">
-        <v>326</v>
+      <c r="E14" s="150" t="s">
+        <v>325</v>
       </c>
       <c r="F14" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="H14" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I14" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="73.5">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
       <c r="E15" s="117" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F15" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="H15" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I15" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="31.5">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
-      <c r="E16" s="153" t="s">
-        <v>323</v>
+      <c r="E16" s="149" t="s">
+        <v>322</v>
       </c>
       <c r="F16" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G16" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="H16" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I16" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="52.5">
       <c r="B17" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D17" s="46" t="s">
         <v>155</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F17" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G17" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="H17" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I17" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="52.5">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
       <c r="E18" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F18" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G18" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="H18" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H18" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I18" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="42">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -18918,39 +19923,39 @@
         <v>158</v>
       </c>
       <c r="F19" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="H19" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I19" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="21">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
-      <c r="E20" s="153" t="s">
-        <v>329</v>
+      <c r="E20" s="149" t="s">
+        <v>328</v>
       </c>
       <c r="F20" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="H20" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I20" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="68"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -18960,7 +19965,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -18970,7 +19975,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14.25" thickBot="1">
       <c r="B23" s="72"/>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -18980,7 +19985,7 @@
       <c r="H23" s="47"/>
       <c r="I23" s="77"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -18990,7 +19995,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -19000,7 +20005,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
     </row>
-    <row r="26" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="6" customHeight="1">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -19010,7 +20015,7 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="14.25">
       <c r="A27" s="32" t="s">
         <v>48</v>
       </c>
@@ -19020,7 +20025,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="122" t="s">
         <v>236</v>
       </c>
@@ -19032,7 +20037,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -19042,7 +20047,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -19052,7 +20057,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -19062,7 +20067,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -19072,7 +20077,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -19098,12 +20103,950 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="8.875" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="8.875" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="8.875" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="8.875" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="8.875" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="8.875" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="8.875" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="8.875" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="8.875" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="8.875" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="8.875" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="8.875" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="8.875" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="8.875" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="8.875" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="8.875" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="8.875" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="8.875" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="8.875" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="8.875" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="8.875" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="8.875" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="8.875" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="8.875" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="8.875" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="8.875" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="8.875" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="8.875" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="8.875" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="8.875" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="8.875" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="8.875" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="8.875" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="8.875" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="8.875" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="8.875" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="8.875" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="8.875" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="8.875" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="8.875" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="8.875" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="8.875" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="8.875" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="8.875" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="8.875" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="8.875" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="8.875" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="8.875" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="8.875" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="8.875" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="8.875" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="8.875" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="8.875" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="8.875" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="8.875" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="8.875" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="8.875" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="8.875" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="8.875" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="8.875" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="8.875" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="8.875" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="8.875" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="8.875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="B4" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="37" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B9" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B10" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>349</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="52.5">
+      <c r="A11" s="38"/>
+      <c r="B11" s="162" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="163" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11" s="165" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="164" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="165" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="165" t="s">
+        <v>352</v>
+      </c>
+      <c r="I11" s="166">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="52.5">
+      <c r="A12" s="38"/>
+      <c r="B12" s="64" t="s">
+        <v>359</v>
+      </c>
+      <c r="C12" s="115"/>
+      <c r="D12" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I12" s="78">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="53.25" thickBot="1">
+      <c r="A13" s="38"/>
+      <c r="B13" s="64" t="s">
+        <v>360</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I13" s="78">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="63">
+      <c r="A14" s="38"/>
+      <c r="B14" s="162" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>364</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="I14" s="78">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="52.5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="115"/>
+      <c r="D15" s="57" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I15" s="78">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="52.5">
+      <c r="A16" s="38"/>
+      <c r="B16" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="57" t="s">
+        <v>354</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>367</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="I16" s="78">
+        <v>45428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B17" s="72"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="77"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="6" customHeight="1">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25">
+      <c r="A21" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="B23" s="122" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G17">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -19491,7 +21434,7 @@
     <col min="16137" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -19501,51 +21444,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1">
       <c r="B4" s="33" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="162" t="s">
+    <row r="5" spans="1:8">
+      <c r="B5" s="174" t="s">
         <v>65</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="166" t="s">
+      <c r="E5" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="166" t="s">
+      <c r="G5" s="178" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="160" t="s">
+      <c r="H5" s="172" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="163"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1">
+      <c r="B6" s="175"/>
       <c r="C6" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="165"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="161"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="D6" s="177"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="179"/>
+      <c r="H6" s="173"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5">
       <c r="B7" s="66" t="s">
         <v>250</v>
       </c>
@@ -19568,7 +21511,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="31.5">
       <c r="B8" s="68" t="s">
         <v>251</v>
       </c>
@@ -19591,7 +21534,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="52.5">
       <c r="B9" s="68" t="s">
         <v>252</v>
       </c>
@@ -19614,7 +21557,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="115.5">
       <c r="B10" s="68" t="s">
         <v>304</v>
       </c>
@@ -19637,7 +21580,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="21">
       <c r="B11" s="68" t="s">
         <v>309</v>
       </c>
@@ -19660,7 +21603,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -19669,7 +21612,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -19678,7 +21621,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -19687,7 +21630,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -19696,7 +21639,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -19705,7 +21648,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:8">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -19714,7 +21657,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:8">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -19723,7 +21666,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:8">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -19732,7 +21675,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:8">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -19741,7 +21684,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:8">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -19750,7 +21693,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:8">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -19759,7 +21702,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:8">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -19768,7 +21711,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -19798,14 +21741,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -20257,7 +22200,7 @@
     <col min="16136" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="6" customHeight="1">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -20266,25 +22209,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="6" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1">
       <c r="A7" s="59"/>
       <c r="B7" s="110" t="s">
         <v>59</v>
@@ -20305,7 +22248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -20314,7 +22257,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -20323,23 +22266,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="6" customHeight="1">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1">
       <c r="A14" s="59"/>
       <c r="B14" s="110" t="s">
         <v>59</v>
@@ -20360,7 +22303,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -20369,7 +22312,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -20378,7 +22321,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -20387,7 +22330,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -20411,14 +22354,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="257" width="9" style="15"/>
@@ -20676,7 +22621,7 @@
     <col min="16133" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -20687,29 +22632,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1">
       <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
@@ -20727,7 +22672,7 @@
       <c r="H7" s="101"/>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="91">
         <v>44908</v>
       </c>
@@ -20745,7 +22690,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="B9" s="91">
         <v>44915</v>
       </c>
@@ -20763,7 +22708,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" s="91">
         <v>44984</v>
       </c>
@@ -20781,17 +22726,18 @@
       <c r="H10" s="23"/>
       <c r="I10" s="92"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="149">
+    <row r="11" spans="1:9">
+      <c r="A11" s="156"/>
+      <c r="B11" s="157">
         <v>45042</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="158" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="151" t="s">
+      <c r="D11" s="159" t="s">
         <v>319</v>
       </c>
-      <c r="E11" s="152" t="s">
+      <c r="E11" s="160" t="s">
         <v>318</v>
       </c>
       <c r="F11" s="23"/>
@@ -20799,27 +22745,45 @@
       <c r="H11" s="23"/>
       <c r="I11" s="92"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
+      <c r="B12" s="151">
+        <v>45575</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="154" t="s">
+        <v>372</v>
+      </c>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="92"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1">
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="98"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="17"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="17"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -20840,7 +22804,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="256" width="9" style="27"/>
@@ -20972,7 +22936,7 @@
     <col min="16142" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -20987,156 +22951,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1">
       <c r="B9" s="38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1">
       <c r="B20" s="38" t="s">
         <v>74</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="6" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -21154,13 +23118,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -21169,7 +23134,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="6" customHeight="1">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -21177,7 +23142,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="80" t="s">
         <v>82</v>
       </c>
@@ -21187,7 +23152,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -21195,7 +23160,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -21205,7 +23170,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -21213,7 +23178,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -21225,7 +23190,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="85" customFormat="1">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -21237,7 +23202,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" s="85" customFormat="1">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -21249,7 +23214,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" s="85" customFormat="1">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -21261,7 +23226,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" s="85" customFormat="1">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -21273,7 +23238,7 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" s="85" customFormat="1">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -21285,7 +23250,7 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" s="85" customFormat="1">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -21297,7 +23262,7 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" s="85" customFormat="1">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -21309,7 +23274,7 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="85" customFormat="1">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -21317,19 +23282,23 @@
         <v>150</v>
       </c>
       <c r="E14" s="87" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" s="85" customFormat="1">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="118" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="161" t="s">
+        <v>373</v>
+      </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" s="85" customFormat="1" ht="11.25">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -21337,7 +23306,7 @@
       <c r="E16" s="87"/>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
       <c r="A17" s="88"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -21345,7 +23314,7 @@
       <c r="E17" s="90"/>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="85" customFormat="1" ht="11.25">
       <c r="A18" s="84"/>
       <c r="B18" s="88"/>
       <c r="C18" s="88"/>
@@ -21353,7 +23322,7 @@
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
       <c r="A19" s="88"/>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
@@ -21361,7 +23330,7 @@
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="E24" s="123"/>
     </row>
   </sheetData>
@@ -21375,6 +23344,7 @@
     <hyperlink ref="D9" location="'テスト仕様_テスト結果(テスト・シナリオ3) '!A1" display="シナリオ3"/>
     <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ7)'!A1" display="シナリオ7"/>
     <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ８"/>
+    <hyperlink ref="D15" location="'テスト仕様_テスト結果(テスト・シナリオ9)'!A1" display="シナリオ9"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -21393,7 +23363,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -21653,7 +23623,7 @@
     <col min="16132" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -21664,40 +23634,40 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="124" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="157" t="s">
+    <row r="7" spans="1:9">
+      <c r="B7" s="169" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="157"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="C7" s="169"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="125"/>
       <c r="C8" s="126"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="B9" s="124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="B10" s="129" t="s">
         <v>162</v>
       </c>
@@ -21705,20 +23675,20 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="B11" s="34"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="B12" s="34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="B13" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="114" customFormat="1">
       <c r="B14" s="125" t="s">
         <v>116</v>
       </c>
@@ -21726,18 +23696,18 @@
         <v>1202984</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="114" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="114" customFormat="1">
       <c r="C15" s="125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="114" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="114" customFormat="1" ht="14.25" thickBot="1">
       <c r="B16" s="114" t="s">
         <v>173</v>
       </c>
       <c r="C16" s="125"/>
     </row>
-    <row r="17" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="32.25" thickBot="1">
       <c r="B17" s="130" t="s">
         <v>175</v>
       </c>
@@ -21745,7 +23715,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14.25" thickBot="1">
       <c r="A18" s="114"/>
       <c r="B18" s="138" t="s">
         <v>176</v>
@@ -21754,7 +23724,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="32.25" thickBot="1">
       <c r="B19" s="130" t="s">
         <v>166</v>
       </c>
@@ -21762,7 +23732,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="B20" s="132" t="s">
         <v>168</v>
       </c>
@@ -21770,7 +23740,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="B21" s="134" t="s">
         <v>169</v>
       </c>
@@ -21778,7 +23748,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="B22" s="136" t="s">
         <v>177</v>
       </c>
@@ -21786,7 +23756,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="B23" s="136" t="s">
         <v>180</v>
       </c>
@@ -21794,7 +23764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="B24" s="136" t="s">
         <v>181</v>
       </c>
@@ -21802,7 +23772,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="B25" s="136" t="s">
         <v>179</v>
       </c>
@@ -21810,7 +23780,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="B26" s="136" t="s">
         <v>182</v>
       </c>
@@ -21818,7 +23788,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="B27" s="136" t="s">
         <v>170</v>
       </c>
@@ -21826,7 +23796,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="14.25" thickBot="1">
       <c r="B28" s="140" t="s">
         <v>172</v>
       </c>
@@ -21834,23 +23804,23 @@
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="B29" s="33"/>
       <c r="C29" s="38"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="B30" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="38"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="B31" s="33" t="s">
         <v>110</v>
       </c>
       <c r="C31" s="38"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="B32" s="125" t="s">
         <v>118</v>
       </c>
@@ -21858,28 +23828,28 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="C33" s="125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="B34" s="125"/>
       <c r="C34" s="38"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="B35" s="34" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="38"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="B36" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="38"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="B37" s="125" t="s">
         <v>109</v>
       </c>
@@ -21887,18 +23857,18 @@
         <v>1203781</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3">
       <c r="C38" s="125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1">
       <c r="B39" s="114" t="s">
         <v>173</v>
       </c>
       <c r="C39" s="125"/>
     </row>
-    <row r="40" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="32.25" thickBot="1">
       <c r="B40" s="130" t="s">
         <v>175</v>
       </c>
@@ -21906,7 +23876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="14.25" thickBot="1">
       <c r="A41" s="114"/>
       <c r="B41" s="138" t="s">
         <v>176</v>
@@ -21915,7 +23885,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="32.25" thickBot="1">
       <c r="B42" s="130" t="s">
         <v>166</v>
       </c>
@@ -21923,7 +23893,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="B43" s="132" t="s">
         <v>168</v>
       </c>
@@ -21931,7 +23901,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="B44" s="134" t="s">
         <v>169</v>
       </c>
@@ -21939,7 +23909,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="B45" s="136" t="s">
         <v>177</v>
       </c>
@@ -21947,7 +23917,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3">
       <c r="B46" s="136" t="s">
         <v>180</v>
       </c>
@@ -21955,7 +23925,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3">
       <c r="B47" s="136" t="s">
         <v>181</v>
       </c>
@@ -21963,7 +23933,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3">
       <c r="B48" s="136" t="s">
         <v>179</v>
       </c>
@@ -21971,7 +23941,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3">
       <c r="B49" s="136" t="s">
         <v>182</v>
       </c>
@@ -21979,7 +23949,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3">
       <c r="B50" s="136" t="s">
         <v>170</v>
       </c>
@@ -21987,7 +23957,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="14.25" thickBot="1">
       <c r="B51" s="140" t="s">
         <v>172</v>
       </c>
@@ -21995,23 +23965,23 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3">
       <c r="B52" s="125"/>
       <c r="C52" s="38"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3">
       <c r="B53" s="34" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="38"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3">
       <c r="B54" s="33" t="s">
         <v>34</v>
       </c>
       <c r="C54" s="38"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3">
       <c r="B55" s="125" t="s">
         <v>120</v>
       </c>
@@ -22019,18 +23989,18 @@
         <v>1206476</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3">
       <c r="C56" s="125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1">
       <c r="B57" s="114" t="s">
         <v>173</v>
       </c>
       <c r="C57" s="125"/>
     </row>
-    <row r="58" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="32.25" thickBot="1">
       <c r="B58" s="130" t="s">
         <v>175</v>
       </c>
@@ -22038,7 +24008,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3">
       <c r="A59" s="114"/>
       <c r="B59" s="132" t="s">
         <v>198</v>
@@ -22047,7 +24017,7 @@
         <v>202455</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3">
       <c r="B60" s="134" t="s">
         <v>199</v>
       </c>
@@ -22055,7 +24025,7 @@
         <v>202458</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3">
       <c r="B61" s="136" t="s">
         <v>199</v>
       </c>
@@ -22063,7 +24033,7 @@
         <v>202484</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3">
       <c r="B62" s="134" t="s">
         <v>199</v>
       </c>
@@ -22071,7 +24041,7 @@
         <v>202487</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="14.25" thickBot="1">
       <c r="B63" s="136" t="s">
         <v>199</v>
       </c>
@@ -22079,7 +24049,7 @@
         <v>202490</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="32.25" thickBot="1">
       <c r="B64" s="130" t="s">
         <v>166</v>
       </c>
@@ -22087,7 +24057,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:3">
       <c r="B65" s="132" t="s">
         <v>200</v>
       </c>
@@ -22095,7 +24065,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:3">
       <c r="B66" s="134" t="s">
         <v>201</v>
       </c>
@@ -22103,7 +24073,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:3">
       <c r="B67" s="134" t="s">
         <v>200</v>
       </c>
@@ -22111,7 +24081,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:3">
       <c r="B68" s="134" t="s">
         <v>201</v>
       </c>
@@ -22119,7 +24089,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:3">
       <c r="B69" s="134" t="s">
         <v>200</v>
       </c>
@@ -22127,13 +24097,13 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B70" s="158" t="s">
+    <row r="70" spans="2:3">
+      <c r="B70" s="170" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="159"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C70" s="171"/>
+    </row>
+    <row r="71" spans="2:3">
       <c r="B71" s="134" t="s">
         <v>169</v>
       </c>
@@ -22141,7 +24111,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:3">
       <c r="B72" s="136" t="s">
         <v>177</v>
       </c>
@@ -22149,7 +24119,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:3">
       <c r="B73" s="136" t="s">
         <v>180</v>
       </c>
@@ -22157,7 +24127,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:3">
       <c r="B74" s="136" t="s">
         <v>181</v>
       </c>
@@ -22165,7 +24135,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:3">
       <c r="B75" s="136" t="s">
         <v>179</v>
       </c>
@@ -22173,7 +24143,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:3">
       <c r="B76" s="136" t="s">
         <v>182</v>
       </c>
@@ -22181,7 +24151,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:3">
       <c r="B77" s="136" t="s">
         <v>170</v>
       </c>
@@ -22189,7 +24159,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3" ht="14.25" thickBot="1">
       <c r="B78" s="140" t="s">
         <v>172</v>
       </c>
@@ -22197,29 +24167,29 @@
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:3">
       <c r="B79" s="125"/>
       <c r="C79" s="38"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:3">
       <c r="B80" s="34" t="s">
         <v>121</v>
       </c>
       <c r="C80" s="38"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3">
       <c r="B81" s="33" t="s">
         <v>111</v>
       </c>
       <c r="C81" s="38"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3">
       <c r="B82" s="125" t="s">
         <v>112</v>
       </c>
       <c r="C82" s="128"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3">
       <c r="B83" s="125" t="s">
         <v>118</v>
       </c>
@@ -22227,7 +24197,7 @@
         <v>9999999</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3">
       <c r="B84" s="125" t="s">
         <v>113</v>
       </c>
@@ -22235,18 +24205,18 @@
         <v>1204094</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3">
       <c r="C85" s="125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1">
       <c r="B86" s="114" t="s">
         <v>173</v>
       </c>
       <c r="C86" s="125"/>
     </row>
-    <row r="87" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="32.25" thickBot="1">
       <c r="B87" s="130" t="s">
         <v>175</v>
       </c>
@@ -22254,7 +24224,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="14.25" thickBot="1">
       <c r="A88" s="114"/>
       <c r="B88" s="138" t="s">
         <v>176</v>
@@ -22263,7 +24233,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="32.25" thickBot="1">
       <c r="B89" s="130" t="s">
         <v>166</v>
       </c>
@@ -22271,7 +24241,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3">
       <c r="B90" s="132" t="s">
         <v>168</v>
       </c>
@@ -22279,7 +24249,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3">
       <c r="B91" s="134" t="s">
         <v>169</v>
       </c>
@@ -22287,7 +24257,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3">
       <c r="B92" s="136" t="s">
         <v>177</v>
       </c>
@@ -22295,7 +24265,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3">
       <c r="B93" s="136" t="s">
         <v>180</v>
       </c>
@@ -22303,7 +24273,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3">
       <c r="B94" s="136" t="s">
         <v>181</v>
       </c>
@@ -22311,7 +24281,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3">
       <c r="B95" s="136" t="s">
         <v>179</v>
       </c>
@@ -22319,7 +24289,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3">
       <c r="B96" s="136" t="s">
         <v>182</v>
       </c>
@@ -22327,7 +24297,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3">
       <c r="B97" s="136" t="s">
         <v>170</v>
       </c>
@@ -22335,7 +24305,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="14.25" thickBot="1">
       <c r="B98" s="140" t="s">
         <v>172</v>
       </c>
@@ -22343,21 +24313,21 @@
         <v>278</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3">
       <c r="B99" s="125"/>
       <c r="C99" s="127"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3">
       <c r="B100" s="34" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3">
       <c r="B101" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" s="114" customFormat="1">
       <c r="B102" s="125" t="s">
         <v>120</v>
       </c>
@@ -22365,18 +24335,18 @@
         <v>1205417</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3">
       <c r="C103" s="125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1">
       <c r="B104" s="114" t="s">
         <v>173</v>
       </c>
       <c r="C104" s="125"/>
     </row>
-    <row r="105" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="32.25" thickBot="1">
       <c r="B105" s="130" t="s">
         <v>175</v>
       </c>
@@ -22384,7 +24354,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="14.25" thickBot="1">
       <c r="A106" s="114"/>
       <c r="B106" s="138" t="s">
         <v>176</v>
@@ -22393,7 +24363,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="32.25" thickBot="1">
       <c r="B107" s="130" t="s">
         <v>166</v>
       </c>
@@ -22401,7 +24371,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3">
       <c r="B108" s="132" t="s">
         <v>168</v>
       </c>
@@ -22409,7 +24379,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3">
       <c r="B109" s="134" t="s">
         <v>169</v>
       </c>
@@ -22417,7 +24387,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3">
       <c r="B110" s="136" t="s">
         <v>177</v>
       </c>
@@ -22425,7 +24395,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3">
       <c r="B111" s="136" t="s">
         <v>180</v>
       </c>
@@ -22433,7 +24403,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3">
       <c r="B112" s="136" t="s">
         <v>181</v>
       </c>
@@ -22441,7 +24411,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3">
       <c r="B113" s="136" t="s">
         <v>179</v>
       </c>
@@ -22449,7 +24419,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3">
       <c r="B114" s="136" t="s">
         <v>182</v>
       </c>
@@ -22457,7 +24427,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3">
       <c r="B115" s="136" t="s">
         <v>170</v>
       </c>
@@ -22465,7 +24435,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="14.25" thickBot="1">
       <c r="B116" s="140" t="s">
         <v>172</v>
       </c>
@@ -22473,21 +24443,21 @@
         <v>283</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3">
       <c r="B117" s="125"/>
       <c r="C117" s="127"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3">
       <c r="B118" s="34" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3">
       <c r="B119" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" s="114" customFormat="1">
       <c r="B120" s="125" t="s">
         <v>109</v>
       </c>
@@ -22495,18 +24465,18 @@
         <v>1203837</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3">
       <c r="C121" s="125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1">
       <c r="B122" s="114" t="s">
         <v>173</v>
       </c>
       <c r="C122" s="125"/>
     </row>
-    <row r="123" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="32.25" thickBot="1">
       <c r="B123" s="130" t="s">
         <v>175</v>
       </c>
@@ -22514,7 +24484,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="14.25" thickBot="1">
       <c r="A124" s="114"/>
       <c r="B124" s="138" t="s">
         <v>176</v>
@@ -22523,7 +24493,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="32.25" thickBot="1">
       <c r="B125" s="130" t="s">
         <v>166</v>
       </c>
@@ -22531,7 +24501,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3">
       <c r="B126" s="132" t="s">
         <v>168</v>
       </c>
@@ -22539,7 +24509,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3">
       <c r="B127" s="134" t="s">
         <v>169</v>
       </c>
@@ -22547,7 +24517,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3">
       <c r="B128" s="136" t="s">
         <v>177</v>
       </c>
@@ -22555,7 +24525,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3">
       <c r="B129" s="136" t="s">
         <v>180</v>
       </c>
@@ -22563,7 +24533,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3">
       <c r="B130" s="136" t="s">
         <v>181</v>
       </c>
@@ -22571,7 +24541,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3">
       <c r="B131" s="136" t="s">
         <v>179</v>
       </c>
@@ -22579,7 +24549,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3">
       <c r="B132" s="136" t="s">
         <v>182</v>
       </c>
@@ -22587,7 +24557,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3">
       <c r="B133" s="136" t="s">
         <v>170</v>
       </c>
@@ -22595,7 +24565,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="14.25" thickBot="1">
       <c r="B134" s="140" t="s">
         <v>172</v>
       </c>
@@ -22603,21 +24573,21 @@
         <v>235</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3">
       <c r="B135" s="33"/>
       <c r="C135" s="145"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3">
       <c r="B136" s="34" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3">
       <c r="B137" s="33" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="114" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" s="114" customFormat="1">
       <c r="B138" s="125" t="s">
         <v>109</v>
       </c>
@@ -22625,18 +24595,18 @@
         <v>1204062</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3">
       <c r="C139" s="125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" s="114" customFormat="1" ht="14.25" thickBot="1">
       <c r="B140" s="114" t="s">
         <v>173</v>
       </c>
       <c r="C140" s="125"/>
     </row>
-    <row r="141" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="32.25" thickBot="1">
       <c r="B141" s="130" t="s">
         <v>175</v>
       </c>
@@ -22644,7 +24614,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="14.25" thickBot="1">
       <c r="A142" s="114"/>
       <c r="B142" s="138" t="s">
         <v>176</v>
@@ -22653,7 +24623,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="32.25" thickBot="1">
       <c r="B143" s="130" t="s">
         <v>166</v>
       </c>
@@ -22661,7 +24631,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3">
       <c r="B144" s="132" t="s">
         <v>168</v>
       </c>
@@ -22669,7 +24639,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3">
       <c r="B145" s="134" t="s">
         <v>169</v>
       </c>
@@ -22677,7 +24647,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:3">
       <c r="B146" s="136" t="s">
         <v>177</v>
       </c>
@@ -22685,7 +24655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3">
       <c r="B147" s="136" t="s">
         <v>180</v>
       </c>
@@ -22693,7 +24663,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:3">
       <c r="B148" s="136" t="s">
         <v>181</v>
       </c>
@@ -22701,7 +24671,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:3">
       <c r="B149" s="136" t="s">
         <v>179</v>
       </c>
@@ -22709,7 +24679,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:3">
       <c r="B150" s="136" t="s">
         <v>182</v>
       </c>
@@ -22717,7 +24687,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:3">
       <c r="B151" s="136" t="s">
         <v>170</v>
       </c>
@@ -22725,7 +24695,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:3" ht="14.25" thickBot="1">
       <c r="B152" s="140" t="s">
         <v>172</v>
       </c>
@@ -22733,7 +24703,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:3">
       <c r="B153" s="33"/>
       <c r="C153" s="145"/>
     </row>
@@ -22763,7 +24733,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -23343,7 +25313,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -23354,35 +25324,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -23408,7 +25378,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="B11" s="64" t="s">
         <v>127</v>
       </c>
@@ -23428,7 +25398,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="64" t="s">
         <v>124</v>
       </c>
@@ -23448,7 +25418,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="B13" s="64" t="s">
         <v>128</v>
       </c>
@@ -23468,7 +25438,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="73.5">
       <c r="A14" s="38"/>
       <c r="B14" s="64" t="s">
         <v>165</v>
@@ -23495,7 +25465,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="52.5">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -23516,7 +25486,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="42">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -23536,7 +25506,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="231" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="231">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -23556,7 +25526,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -23566,7 +25536,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -23576,7 +25546,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="64"/>
       <c r="C20" s="115"/>
       <c r="D20" s="46"/>
@@ -23586,7 +25556,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -23596,7 +25566,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -23606,7 +25576,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="68"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -23616,7 +25586,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="68"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -23626,7 +25596,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="14.25" thickBot="1">
       <c r="B25" s="72"/>
       <c r="C25" s="47"/>
       <c r="D25" s="47"/>
@@ -23636,7 +25606,7 @@
       <c r="H25" s="47"/>
       <c r="I25" s="77"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
@@ -23646,7 +25616,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
@@ -23656,7 +25626,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="6" customHeight="1">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
@@ -23666,7 +25636,7 @@
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="32" t="s">
         <v>81</v>
       </c>
@@ -23676,7 +25646,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="122" t="s">
         <v>236</v>
       </c>
@@ -23688,7 +25658,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="122"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -23698,7 +25668,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -23708,7 +25678,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -23718,7 +25688,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -23728,7 +25698,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -23738,7 +25708,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="39" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="2:9" ht="6" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -23756,17 +25726,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF7030A0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -24346,7 +26315,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -24357,35 +26326,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -24411,55 +26380,55 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="73.5">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="115" t="s">
         <v>337</v>
-      </c>
-      <c r="C11" s="115" t="s">
-        <v>338</v>
       </c>
       <c r="D11" s="46" t="s">
         <v>155</v>
       </c>
       <c r="E11" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="H11" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I11" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="52.5">
       <c r="A12" s="38"/>
       <c r="B12" s="64"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
       <c r="E12" s="57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F12" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="H12" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I12" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="42">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -24467,59 +26436,59 @@
         <v>158</v>
       </c>
       <c r="F13" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="H13" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I13" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="199.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="199.5">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="117" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F14" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="H14" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I14" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="31.5">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
-      <c r="E15" s="153" t="s">
-        <v>324</v>
+      <c r="E15" s="149" t="s">
+        <v>323</v>
       </c>
       <c r="F15" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="H15" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>342</v>
       </c>
       <c r="I15" s="78">
         <v>45042</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -24529,7 +26498,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="B17" s="64"/>
       <c r="C17" s="115"/>
       <c r="D17" s="46"/>
@@ -24539,7 +26508,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -24549,7 +26518,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -24559,7 +26528,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -24569,7 +26538,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="68"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -24579,7 +26548,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="14.25" thickBot="1">
       <c r="B22" s="72"/>
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
@@ -24589,7 +26558,7 @@
       <c r="H22" s="47"/>
       <c r="I22" s="77"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="35"/>
@@ -24599,7 +26568,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -24609,7 +26578,7 @@
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
     </row>
-    <row r="25" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="6" customHeight="1">
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -24619,7 +26588,7 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="32" t="s">
         <v>48</v>
       </c>
@@ -24629,7 +26598,7 @@
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="122" t="s">
         <v>236</v>
       </c>
@@ -24641,7 +26610,7 @@
       <c r="H27" s="35"/>
       <c r="I27" s="35"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="122"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
@@ -24651,7 +26620,7 @@
       <c r="H28" s="35"/>
       <c r="I28" s="35"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
@@ -24661,7 +26630,7 @@
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
@@ -24671,7 +26640,7 @@
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -24681,7 +26650,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -24691,7 +26660,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="36" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="6" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -24718,7 +26687,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -25298,7 +27267,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -25309,35 +27278,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -25363,7 +27332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="B11" s="64" t="s">
         <v>129</v>
       </c>
@@ -25383,7 +27352,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="21">
       <c r="B12" s="64" t="s">
         <v>130</v>
       </c>
@@ -25403,7 +27372,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="B13" s="64" t="s">
         <v>131</v>
       </c>
@@ -25423,7 +27392,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="73.5">
       <c r="A14" s="38"/>
       <c r="B14" s="64" t="s">
         <v>184</v>
@@ -25450,7 +27419,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="42">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -25471,7 +27440,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="42">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -25491,7 +27460,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="31.5">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -25511,7 +27480,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -25522,7 +27491,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -25533,7 +27502,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -25543,7 +27512,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -25554,7 +27523,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="38"/>
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
@@ -25565,7 +27534,7 @@
       <c r="H22" s="57"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -25575,7 +27544,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -25585,7 +27554,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -25595,7 +27564,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -25605,7 +27574,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -25615,7 +27584,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -25625,7 +27594,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="64"/>
       <c r="C29" s="115"/>
       <c r="D29" s="46"/>
@@ -25635,7 +27604,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="64"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -25645,7 +27614,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -25655,7 +27624,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="B32" s="68"/>
       <c r="C32" s="46"/>
       <c r="D32" s="46"/>
@@ -25665,7 +27634,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -25675,7 +27644,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="14.25" thickBot="1">
       <c r="B34" s="72"/>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
@@ -25685,7 +27654,7 @@
       <c r="H34" s="47"/>
       <c r="I34" s="77"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -25695,7 +27664,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -25705,7 +27674,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="6" customHeight="1">
       <c r="A37" s="28"/>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -25715,7 +27684,7 @@
       <c r="G37" s="35"/>
       <c r="H37" s="35"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="14.25">
       <c r="A38" s="32" t="s">
         <v>81</v>
       </c>
@@ -25725,7 +27694,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="B39" s="122" t="s">
         <v>236</v>
       </c>
@@ -25737,7 +27706,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -25747,7 +27716,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -25757,7 +27726,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
@@ -25767,7 +27736,7 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9">
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -25777,7 +27746,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9">
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
@@ -25813,7 +27782,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -26393,7 +28362,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="6" customHeight="1">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -26404,35 +28373,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25">
       <c r="A2" s="26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" s="25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1">
       <c r="B9" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1">
       <c r="B10" s="105" t="s">
         <v>40</v>
       </c>
@@ -26458,7 +28427,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="21">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>98</v>
@@ -26479,7 +28448,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="31.5">
       <c r="B12" s="64" t="s">
         <v>133</v>
       </c>
@@ -26499,7 +28468,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="31.5">
       <c r="B13" s="64" t="s">
         <v>134</v>
       </c>
@@ -26519,7 +28488,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="73.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="73.5">
       <c r="B14" s="64" t="s">
         <v>208</v>
       </c>
@@ -26545,7 +28514,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="52.5">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -26565,7 +28534,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="42">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -26585,7 +28554,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="105">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -26606,7 +28575,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="117"/>
@@ -26616,7 +28585,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="38"/>
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
@@ -26627,7 +28596,7 @@
       <c r="H19" s="57"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -26638,7 +28607,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="117"/>
@@ -26648,7 +28617,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -26658,7 +28627,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -26668,7 +28637,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -26678,7 +28647,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -26688,7 +28657,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -26698,7 +28667,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="B27" s="64"/>
       <c r="C27" s="115"/>
       <c r="D27" s="46"/>
@@ -26708,7 +28677,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -26718,7 +28687,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -26728,7 +28697,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="B30" s="68"/>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -26738,7 +28707,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="B31" s="68"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -26748,7 +28717,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="14.25" thickBot="1">
       <c r="B32" s="72"/>
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
@@ -26758,7 +28727,7 @@
       <c r="H32" s="47"/>
       <c r="I32" s="77"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
@@ -26768,7 +28737,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
@@ -26778,7 +28747,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="6" customHeight="1">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
@@ -26788,7 +28757,7 @@
       <c r="G35" s="35"/>
       <c r="H35" s="35"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="14.25">
       <c r="A36" s="32" t="s">
         <v>48</v>
       </c>
@@ -26798,7 +28767,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="B37" s="122" t="s">
         <v>236</v>
       </c>
@@ -26810,7 +28779,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -26820,7 +28789,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -26830,7 +28799,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -26840,7 +28809,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9">
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
@@ -26850,7 +28819,7 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9">
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
